--- a/E-Learning Project on chemical factory.xlsx
+++ b/E-Learning Project on chemical factory.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/335a723bf2395d2e/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/335a723bf2395d2e/Desktop/PRoject done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="8_{00FF0D3F-2B9C-4F4A-9CD0-90EE03886584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9726BB3D-4D8C-4864-B6E4-9CD5B2F2EB22}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="8_{00FF0D3F-2B9C-4F4A-9CD0-90EE03886584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{643F86F2-865A-4CF9-8B59-567ED10E6AD8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B9984D29-21B4-41E2-9A05-D2E243AC1AB1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Atlas copo" sheetId="1" r:id="rId1"/>
+    <sheet name="E_Learning" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BD3D69-D532-4085-8EC8-21F62939A8F1}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,7 +785,7 @@
     <col min="2" max="2" width="32.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="60.21875" customWidth="1"/>
-    <col min="5" max="5" width="41.21875" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1139,7 +1139,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>23</v>
       </c>
